--- a/data/image_urls.xlsx
+++ b/data/image_urls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/t-tgokhale_microsoft_com/Documents/Documents/GitHub/tejas-gokhale.github.io/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABDACC1048BF415E7B7C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBB937B1-1EE1-42B9-B800-8AE08C1E8B23}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_4DD552EB2327FD753C272AFF4A0E3B7F6490FAB9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C22974AC-F845-47AD-95F9-83233F3C68BB}"/>
   <bookViews>
-    <workbookView xWindow="40095" yWindow="-3075" windowWidth="16590" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60150" yWindow="-4620" windowWidth="24885" windowHeight="16560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
   <si>
     <t>https://www.tejasgokhale.com/images/tg_okc.jpg</t>
   </si>
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -383,6 +383,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -390,6 +395,6 @@
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
-  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" contentBits="0" removed="0"/>
+  <clbl:label id="{f42aa342-8706-4288-bd11-ebb85995028c}" enabled="1" method="Standard" siteId="{72f988bf-86f1-41af-91ab-2d7cd011db47}" removed="0"/>
 </clbl:labelList>
 </file>